--- a/wms_chiphi.xlsx
+++ b/wms_chiphi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyDuAnPhanMem\giuaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A0C61-40A6-4F13-9AA9-244BF05A062F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7818F05-2C45-4CA2-BBAC-B615BEFFFAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32F1B94A-D3A2-4F6F-83B8-68AB09DEDB3A}"/>
   </bookViews>
@@ -170,10 +170,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₫-42A]_-;\-* #,##0.00\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,12 +236,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF383A42"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -260,6 +255,25 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF383A42"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -354,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,17 +395,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,7 +405,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,26 +419,8 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,7 +428,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -453,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -483,10 +467,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1108,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1246,7 +1269,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -1259,16 +1282,20 @@
                     </a:prstClr>
                   </a:outerShdw>
                 </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="vi-VN"/>
+              <a:rPr lang="vi-VN" sz="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
               <a:t>THỜI GIAN HOÀN VỐN</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1285,7 +1312,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -1298,7 +1325,7 @@
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3498,15 +3525,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1074420</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3534,15 +3561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3557,7 +3584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10195560" y="8244840"/>
+          <a:off x="11407140" y="7886700"/>
           <a:ext cx="114300" cy="106680"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -3924,13 +3951,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3945,10 +3972,10 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
@@ -3960,10 +3987,10 @@
       <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4">
@@ -3975,10 +4002,10 @@
       <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4">
@@ -3990,10 +4017,10 @@
       <c r="D5" s="1">
         <v>80</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
@@ -4005,10 +4032,10 @@
       <c r="D6" s="1">
         <v>50</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
@@ -4020,10 +4047,10 @@
       <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5">
@@ -4038,133 +4065,133 @@
         <f>SUMPRODUCT($B$2:$B$6, D2:D6)</f>
         <v>51.5</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="29" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4172,7 +4199,7 @@
     <row r="32" spans="1:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4192,7 +4219,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4203,338 +4230,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="48">
         <v>0.25</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="49">
         <v>70</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="46">
         <v>85</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="46">
         <v>95</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="46">
         <v>90</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="48">
         <v>0.15</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="49">
         <v>80</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="46">
         <v>85</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="46">
         <v>90</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="46">
         <v>85</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="48">
         <v>0.2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="49">
         <v>95</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="46">
         <v>75</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="46">
         <v>85</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="46">
         <v>80</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="48">
         <v>0.1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="49">
         <v>80</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="46">
         <v>85</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="46">
         <v>75</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="46">
         <v>70</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="48">
         <v>0.3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="49">
         <v>75</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="46">
         <v>90</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="46">
         <v>95</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="46">
         <v>95</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="48">
         <f>SUM(B3:B7)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="46">
         <f>SUMPRODUCT($B$3:$B$7, C3:C7)</f>
         <v>79</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="46">
         <f t="shared" ref="D8:F8" si="0">SUMPRODUCT($B$3:$B$7, D3:D7)</f>
         <v>84.5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="46">
         <f t="shared" si="0"/>
         <v>90.25</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="46">
         <f t="shared" si="0"/>
         <v>86.75</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="28"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4549,361 +4576,480 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48871181-1F3C-43D0-8C38-35F592DE88DC}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="4" width="13.77734375" customWidth="1"/>
+    <col min="2" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="18">
         <v>0.01</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="23">
         <v>0</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="23">
         <v>6000000</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="23">
         <f>SUM(B4:C4)</f>
         <v>6000000</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="23">
         <v>2880000</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="23">
         <v>2080000</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="23">
         <f>SUM(B5:C5)</f>
         <v>4960000</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="23">
         <f>B4-B5</f>
         <v>-2880000</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="23">
         <f>C4-C5</f>
         <v>3920000</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="23">
         <f>D4-D5</f>
         <v>1040000</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="52">
         <f>NPV(B1,B6:C6)</f>
         <v>991275.36516027839</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="29">
         <v>0.01</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="30">
         <v>2880000</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="30">
         <v>2080000</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="31">
         <f>1/(1+$B$10)^B12</f>
         <v>0.99009900990099009</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="31">
         <f>1/(1+$B$10)^C12</f>
         <v>0.98029604940692083</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="32">
         <f>B13*B14</f>
         <v>2851485.1485148515</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="32">
         <f>C13*C14</f>
         <v>2039015.7827663952</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="32">
         <f>B15+C15</f>
         <v>4890500.9312812462</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="31">
         <v>0</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="30">
         <v>6000000</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="31">
         <v>0.99009901</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="31">
         <v>0.980296049</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="33">
         <f>B17*B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="32">
         <f>C17*C18</f>
         <v>5881776.2939999998</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="32">
         <f>B19+C19</f>
         <v>5881776.2939999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="30">
         <f>B19-B15</f>
         <v>-2851485.1485148515</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="30">
         <f>C19-C15</f>
         <v>3842760.5112336045</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="32">
         <f>B21+C21</f>
         <v>991275.36271875305</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="30">
         <f>B21</f>
         <v>-2851485.1485148515</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="30">
         <f>B21+C21</f>
         <v>991275.36271875305</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="34">
         <f>(D19-D15)/D15</f>
         <v>0.20269403413835002</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="26" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="49" t="s">
+      <c r="I26" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="35">
+      <c r="F27" s="25">
         <v>1</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="26">
         <f>B15</f>
         <v>2851485.1485148515</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="27">
         <f>B19</f>
         <v>0</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="26">
         <f>G27</f>
         <v>2851485.1485148515</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="27">
         <f>H27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="35">
+      <c r="F28" s="25">
         <v>2</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="26">
         <f>C15</f>
         <v>2039015.7827663952</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="26">
         <f>C19</f>
         <v>5881776.2939999998</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="26">
         <f>I27+G28</f>
         <v>4890500.9312812462</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="26">
         <f>J27+H28</f>
         <v>5881776.2939999998</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F30:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
